--- a/pan_binary_heatmap_fixed.xlsx
+++ b/pan_binary_heatmap_fixed.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galambosd/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1480" windowWidth="27360" windowHeight="14220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="1480" windowWidth="27360" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -936,6 +936,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -958,14 +974,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1241,18 +1261,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW105"/>
+  <dimension ref="A1:BY105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <selection activeCell="BW10" sqref="BW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="74" max="74" width="20.5" customWidth="1"/>
+    <col min="75" max="75" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -1479,12 +1504,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1493,43 +1518,43 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1541,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1556,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1571,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1592,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>1</v>
@@ -1616,40 +1641,40 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1658,61 +1683,62 @@
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1736,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1745,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1760,25 +1786,25 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1787,28 +1813,28 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1844,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1933,14 +1959,15 @@
       <c r="BW3">
         <v>0</v>
       </c>
+      <c r="BY3" s="1"/>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1964,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1973,40 +2000,40 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -2015,25 +2042,25 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -2161,44 +2188,45 @@
       <c r="BW4">
         <v>0</v>
       </c>
+      <c r="BY4" s="1"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -2210,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2225,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -2240,19 +2268,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -2261,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -2276,64 +2304,64 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -2342,61 +2370,62 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="BY5" s="1"/>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2420,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2471,28 +2500,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2516,16 +2545,16 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -2617,14 +2646,15 @@
       <c r="BW6">
         <v>0</v>
       </c>
+      <c r="BY6" s="1"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2648,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2657,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2699,22 +2729,22 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2744,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -2825,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7">
         <v>0</v>
@@ -2845,14 +2875,15 @@
       <c r="BW7">
         <v>0</v>
       </c>
+      <c r="BY7" s="1"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2876,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2885,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2927,25 +2958,25 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -3073,14 +3104,15 @@
       <c r="BW8">
         <v>0</v>
       </c>
+      <c r="BY8" s="1"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3104,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3113,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3155,28 +3187,28 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>1</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -3301,14 +3333,15 @@
       <c r="BW9">
         <v>0</v>
       </c>
+      <c r="BY9" s="1"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3332,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3374,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -3383,22 +3416,22 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>1</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -3413,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -3529,14 +3562,15 @@
       <c r="BW10">
         <v>0</v>
       </c>
+      <c r="BY10" s="1"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3569,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3623,16 +3657,16 @@
         <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -3757,14 +3791,15 @@
       <c r="BW11">
         <v>0</v>
       </c>
+      <c r="BY11" s="1"/>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3773,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3788,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3800,25 +3835,25 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3830,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -3839,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3848,13 +3883,13 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -3935,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -3985,14 +4020,15 @@
       <c r="BW12">
         <v>0</v>
       </c>
+      <c r="BY12" s="1"/>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4070,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -4213,14 +4249,15 @@
       <c r="BW13">
         <v>0</v>
       </c>
+      <c r="BY13" s="1"/>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4253,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -4313,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -4441,14 +4478,15 @@
       <c r="BW14">
         <v>0</v>
       </c>
+      <c r="BY14" s="1"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4472,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4502,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -4514,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -4523,22 +4561,22 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -4669,14 +4707,15 @@
       <c r="BW15">
         <v>0</v>
       </c>
+      <c r="BY15" s="1"/>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4700,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4724,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -4751,25 +4790,25 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -4897,14 +4936,15 @@
       <c r="BW16">
         <v>0</v>
       </c>
+      <c r="BY16" s="1"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4937,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -4958,19 +4998,19 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -4991,16 +5031,16 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -5125,14 +5165,15 @@
       <c r="BW17">
         <v>0</v>
       </c>
+      <c r="BY17" s="1"/>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5165,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -5186,19 +5227,19 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -5219,16 +5260,16 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -5353,20 +5394,21 @@
       <c r="BW18">
         <v>0</v>
       </c>
+      <c r="BY18" s="1"/>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5384,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -5435,16 +5477,16 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -5480,16 +5522,16 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -5581,14 +5623,15 @@
       <c r="BW19">
         <v>0</v>
       </c>
+      <c r="BY19" s="1"/>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5612,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -5636,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -5663,16 +5706,16 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -5681,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -5809,14 +5852,15 @@
       <c r="BW20">
         <v>0</v>
       </c>
+      <c r="BY20" s="1"/>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5849,10 +5893,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -5903,10 +5947,10 @@
         <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -6017,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="BQ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR21">
         <v>0</v>
@@ -6037,14 +6081,15 @@
       <c r="BW21">
         <v>0</v>
       </c>
+      <c r="BY21" s="1"/>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6068,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -6077,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -6119,28 +6164,28 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -6265,14 +6310,15 @@
       <c r="BW22">
         <v>0</v>
       </c>
+      <c r="BY22" s="1"/>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6305,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -6359,13 +6405,13 @@
         <v>1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -6493,14 +6539,15 @@
       <c r="BW23">
         <v>0</v>
       </c>
+      <c r="BY23" s="1"/>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6524,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -6575,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
         <v>1</v>
@@ -6596,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="AH24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -6721,14 +6768,15 @@
       <c r="BW24">
         <v>0</v>
       </c>
+      <c r="BY24" s="1"/>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6752,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -6761,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -6803,28 +6851,28 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -6949,14 +6997,15 @@
       <c r="BW25">
         <v>0</v>
       </c>
+      <c r="BY25" s="1"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6980,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -6989,10 +7038,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -7031,16 +7080,16 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -7177,14 +7226,15 @@
       <c r="BW26">
         <v>0</v>
       </c>
+      <c r="BY26" s="1"/>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7262,7 +7312,7 @@
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>1</v>
@@ -7405,14 +7455,15 @@
       <c r="BW27">
         <v>0</v>
       </c>
+      <c r="BY27" s="1"/>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -7436,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -7445,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -7487,16 +7538,16 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -7633,14 +7684,15 @@
       <c r="BW28">
         <v>0</v>
       </c>
+      <c r="BY28" s="1"/>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -7664,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -7715,22 +7767,22 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -7861,14 +7913,15 @@
       <c r="BW29">
         <v>0</v>
       </c>
+      <c r="BY29" s="1"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -7901,10 +7954,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -7961,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -8089,14 +8142,15 @@
       <c r="BW30">
         <v>0</v>
       </c>
+      <c r="BY30" s="1"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -8120,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -8171,22 +8225,22 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -8317,14 +8371,15 @@
       <c r="BW31">
         <v>0</v>
       </c>
+      <c r="BY31" s="1"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -8348,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -8399,28 +8454,28 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32">
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -8545,14 +8600,15 @@
       <c r="BW32">
         <v>0</v>
       </c>
+      <c r="BY32" s="1"/>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -8576,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -8627,19 +8683,19 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -8648,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -8773,14 +8829,15 @@
       <c r="BW33">
         <v>0</v>
       </c>
+      <c r="BY33" s="1"/>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -8804,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -8855,16 +8912,16 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -8885,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34">
         <v>0</v>
@@ -8930,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="AZ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA34">
         <v>0</v>
@@ -9001,14 +9058,15 @@
       <c r="BW34">
         <v>0</v>
       </c>
+      <c r="BY34" s="1"/>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -9229,14 +9287,15 @@
       <c r="BW35">
         <v>0</v>
       </c>
+      <c r="BY35" s="1"/>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -9275,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9293,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -9305,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -9338,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -9457,14 +9516,15 @@
       <c r="BW36">
         <v>0</v>
       </c>
+      <c r="BY36" s="1"/>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -9488,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -9497,10 +9557,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -9539,16 +9599,16 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -9685,14 +9745,15 @@
       <c r="BW37">
         <v>0</v>
       </c>
+      <c r="BY37" s="1"/>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -9913,14 +9974,15 @@
       <c r="BW38">
         <v>0</v>
       </c>
+      <c r="BY38" s="1"/>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9953,10 +10015,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -10010,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -10040,16 +10102,16 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -10141,14 +10203,15 @@
       <c r="BW39">
         <v>0</v>
       </c>
+      <c r="BY39" s="1"/>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -10172,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -10223,16 +10286,16 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -10268,16 +10331,16 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -10369,14 +10432,15 @@
       <c r="BW40">
         <v>0</v>
       </c>
+      <c r="BY40" s="1"/>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -10409,13 +10473,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -10424,25 +10488,25 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -10463,16 +10527,16 @@
         <v>1</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -10597,14 +10661,15 @@
       <c r="BW41">
         <v>0</v>
       </c>
+      <c r="BY41" s="1"/>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -10637,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -10652,25 +10717,25 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -10691,13 +10756,13 @@
         <v>1</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42">
         <v>0</v>
@@ -10825,14 +10890,15 @@
       <c r="BW42">
         <v>0</v>
       </c>
+      <c r="BY42" s="1"/>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -10841,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -10856,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -10868,25 +10934,25 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -10898,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -10907,22 +10973,22 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43">
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43">
         <v>0</v>
@@ -11003,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="BG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH43">
         <v>0</v>
@@ -11053,14 +11119,15 @@
       <c r="BW43">
         <v>0</v>
       </c>
+      <c r="BY43" s="1"/>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -11084,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -11114,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -11126,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -11135,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -11281,14 +11348,15 @@
       <c r="BW44">
         <v>0</v>
       </c>
+      <c r="BY44" s="1"/>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -11321,10 +11389,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -11342,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -11354,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -11378,10 +11446,10 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45">
         <v>0</v>
@@ -11509,8 +11577,9 @@
       <c r="BW45">
         <v>0</v>
       </c>
+      <c r="BY45" s="1"/>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -11737,14 +11806,15 @@
       <c r="BW46">
         <v>0</v>
       </c>
+      <c r="BY46" s="1"/>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -11792,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -11876,13 +11946,13 @@
         <v>0</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47">
         <v>0</v>
@@ -11965,14 +12035,15 @@
       <c r="BW47">
         <v>0</v>
       </c>
+      <c r="BY47" s="1"/>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -12020,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -12092,13 +12163,13 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48">
         <v>0</v>
@@ -12193,14 +12264,15 @@
       <c r="BW48">
         <v>0</v>
       </c>
+      <c r="BY48" s="1"/>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -12248,10 +12320,10 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -12287,16 +12359,16 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49">
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -12421,14 +12493,15 @@
       <c r="BW49">
         <v>0</v>
       </c>
+      <c r="BY49" s="1"/>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -12649,14 +12722,15 @@
       <c r="BW50">
         <v>0</v>
       </c>
+      <c r="BY50" s="1"/>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -12689,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -12722,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -12743,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -12752,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -12877,14 +12951,15 @@
       <c r="BW51">
         <v>0</v>
       </c>
+      <c r="BY51" s="1"/>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -12893,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -12905,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -12950,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -12971,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -13105,14 +13180,15 @@
       <c r="BW52">
         <v>0</v>
       </c>
+      <c r="BY52" s="1"/>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -13121,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -13133,10 +13209,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -13187,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -13196,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -13333,14 +13409,15 @@
       <c r="BW53">
         <v>0</v>
       </c>
+      <c r="BY53" s="1"/>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -13364,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -13406,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -13415,22 +13492,22 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54">
         <v>1</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -13561,14 +13638,15 @@
       <c r="BW54">
         <v>0</v>
       </c>
+      <c r="BY54" s="1"/>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -13616,22 +13694,22 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -13789,14 +13867,15 @@
       <c r="BW55">
         <v>0</v>
       </c>
+      <c r="BY55" s="1"/>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -14017,14 +14096,15 @@
       <c r="BW56">
         <v>0</v>
       </c>
+      <c r="BY56" s="1"/>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -14245,14 +14325,15 @@
       <c r="BW57">
         <v>0</v>
       </c>
+      <c r="BY57" s="1"/>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -14261,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -14273,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -14285,10 +14366,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -14473,14 +14554,15 @@
       <c r="BW58">
         <v>0</v>
       </c>
+      <c r="BY58" s="1"/>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -14701,14 +14783,15 @@
       <c r="BW59">
         <v>0</v>
       </c>
+      <c r="BY59" s="1"/>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -14741,10 +14824,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -14762,10 +14845,10 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -14929,14 +15012,15 @@
       <c r="BW60">
         <v>0</v>
       </c>
+      <c r="BY60" s="1"/>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -14984,10 +15068,10 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -15002,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -15023,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -15157,14 +15241,15 @@
       <c r="BW61">
         <v>0</v>
       </c>
+      <c r="BY61" s="1"/>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -15215,10 +15300,10 @@
         <v>1</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -15385,14 +15470,15 @@
       <c r="BW62">
         <v>0</v>
       </c>
+      <c r="BY62" s="1"/>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -15613,14 +15699,15 @@
       <c r="BW63">
         <v>0</v>
       </c>
+      <c r="BY63" s="1"/>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -15644,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -15668,10 +15755,10 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -15695,16 +15782,16 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -15841,14 +15928,15 @@
       <c r="BW64">
         <v>0</v>
       </c>
+      <c r="BY64" s="1"/>
     </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -15881,10 +15969,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -15935,16 +16023,16 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65">
         <v>0</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65">
         <v>0</v>
@@ -16069,14 +16157,15 @@
       <c r="BW65">
         <v>0</v>
       </c>
+      <c r="BY65" s="1"/>
     </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -16085,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -16097,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -16109,10 +16198,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -16297,14 +16386,15 @@
       <c r="BW66">
         <v>0</v>
       </c>
+      <c r="BY66" s="1"/>
     </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -16346,13 +16436,13 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -16361,13 +16451,13 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -16525,14 +16615,15 @@
       <c r="BW67">
         <v>0</v>
       </c>
+      <c r="BY67" s="1"/>
     </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ref="A68:A105" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -16580,10 +16671,10 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -16598,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="X68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -16619,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="AE68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -16753,14 +16844,15 @@
       <c r="BW68">
         <v>0</v>
       </c>
+      <c r="BY68" s="1"/>
     </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -16808,10 +16900,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -16847,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="AE69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -16856,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="AH69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69">
         <v>0</v>
@@ -16981,14 +17073,15 @@
       <c r="BW69">
         <v>0</v>
       </c>
+      <c r="BY69" s="1"/>
     </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -17209,14 +17302,15 @@
       <c r="BW70">
         <v>0</v>
       </c>
+      <c r="BY70" s="1"/>
     </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -17264,10 +17358,10 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71">
         <v>0</v>
@@ -17306,13 +17400,13 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG71">
         <v>0</v>
       </c>
       <c r="AH71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI71">
         <v>0</v>
@@ -17437,14 +17531,15 @@
       <c r="BW71">
         <v>0</v>
       </c>
+      <c r="BY71" s="1"/>
     </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -17453,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -17465,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -17492,10 +17587,10 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -17665,14 +17760,15 @@
       <c r="BW72">
         <v>0</v>
       </c>
+      <c r="BY72" s="1"/>
     </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -17705,10 +17801,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -17759,10 +17855,10 @@
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73">
         <v>0</v>
@@ -17893,14 +17989,15 @@
       <c r="BW73">
         <v>0</v>
       </c>
+      <c r="BY73" s="1"/>
     </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -17933,10 +18030,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -17990,13 +18087,13 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG74">
         <v>0</v>
       </c>
       <c r="AH74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI74">
         <v>0</v>
@@ -18121,14 +18218,15 @@
       <c r="BW74">
         <v>0</v>
       </c>
+      <c r="BY74" s="1"/>
     </row>
-    <row r="75" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -18152,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -18182,7 +18280,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -18194,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="X75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -18203,16 +18301,16 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE75">
         <v>0</v>
@@ -18349,14 +18447,15 @@
       <c r="BW75">
         <v>0</v>
       </c>
+      <c r="BY75" s="1"/>
     </row>
-    <row r="76" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -18380,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -18404,10 +18503,10 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -18431,16 +18530,16 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE76">
         <v>0</v>
@@ -18449,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH76">
         <v>0</v>
@@ -18577,14 +18676,15 @@
       <c r="BW76">
         <v>0</v>
       </c>
+      <c r="BY76" s="1"/>
     </row>
-    <row r="77" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -18805,14 +18905,15 @@
       <c r="BW77">
         <v>0</v>
       </c>
+      <c r="BY77" s="1"/>
     </row>
-    <row r="78" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -18878,7 +18979,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -18899,16 +19000,16 @@
         <v>0</v>
       </c>
       <c r="AE78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG78">
         <v>0</v>
       </c>
       <c r="AH78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI78">
         <v>0</v>
@@ -19033,14 +19134,15 @@
       <c r="BW78">
         <v>0</v>
       </c>
+      <c r="BY78" s="1"/>
     </row>
-    <row r="79" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -19064,7 +19166,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -19088,10 +19190,10 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T79">
         <v>0</v>
@@ -19106,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -19115,22 +19217,22 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG79">
         <v>0</v>
@@ -19261,14 +19363,15 @@
       <c r="BW79">
         <v>0</v>
       </c>
+      <c r="BY79" s="1"/>
     </row>
-    <row r="80" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -19292,7 +19395,7 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -19301,10 +19404,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -19343,22 +19446,22 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80">
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG80">
         <v>0</v>
@@ -19489,14 +19592,15 @@
       <c r="BW80">
         <v>0</v>
       </c>
+      <c r="BY80" s="1"/>
     </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -19520,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -19571,22 +19675,22 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81">
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG81">
         <v>0</v>
@@ -19598,10 +19702,10 @@
         <v>0</v>
       </c>
       <c r="AJ81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>0</v>
@@ -19717,14 +19821,15 @@
       <c r="BW81">
         <v>0</v>
       </c>
+      <c r="BY81" s="1"/>
     </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -19748,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -19799,28 +19904,28 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82">
         <v>0</v>
       </c>
       <c r="AC82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -19945,14 +20050,15 @@
       <c r="BW82">
         <v>0</v>
       </c>
+      <c r="BY82" s="1"/>
     </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -19985,10 +20091,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -20039,10 +20145,10 @@
         <v>0</v>
       </c>
       <c r="AE83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -20173,14 +20279,15 @@
       <c r="BW83">
         <v>0</v>
       </c>
+      <c r="BY83" s="1"/>
     </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -20213,10 +20320,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -20267,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="AE84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -20276,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="AH84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI84">
         <v>0</v>
@@ -20401,14 +20508,15 @@
       <c r="BW84">
         <v>0</v>
       </c>
+      <c r="BY84" s="1"/>
     </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -20450,10 +20558,10 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -20462,10 +20570,10 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -20629,14 +20737,15 @@
       <c r="BW85">
         <v>0</v>
       </c>
+      <c r="BY85" s="1"/>
     </row>
-    <row r="86" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -20669,10 +20778,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -20702,7 +20811,7 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>0</v>
@@ -20714,10 +20823,10 @@
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>0</v>
@@ -20726,13 +20835,13 @@
         <v>1</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI86">
         <v>0</v>
@@ -20857,14 +20966,15 @@
       <c r="BW86">
         <v>0</v>
       </c>
+      <c r="BY86" s="1"/>
     </row>
-    <row r="87" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -20888,7 +20998,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -20939,19 +21049,19 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -20960,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="AH87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI87">
         <v>0</v>
@@ -21085,14 +21195,15 @@
       <c r="BW87">
         <v>0</v>
       </c>
+      <c r="BY87" s="1"/>
     </row>
-    <row r="88" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -21116,7 +21227,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -21140,10 +21251,10 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -21167,16 +21278,16 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE88">
         <v>0</v>
@@ -21313,14 +21424,15 @@
       <c r="BW88">
         <v>0</v>
       </c>
+      <c r="BY88" s="1"/>
     </row>
-    <row r="89" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -21368,10 +21480,10 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -21407,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="AE89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -21416,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="AH89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI89">
         <v>0</v>
@@ -21541,14 +21653,15 @@
       <c r="BW89">
         <v>0</v>
       </c>
+      <c r="BY89" s="1"/>
     </row>
-    <row r="90" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -21572,7 +21685,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -21581,10 +21694,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -21623,16 +21736,16 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE90">
         <v>0</v>
@@ -21769,14 +21882,15 @@
       <c r="BW90">
         <v>0</v>
       </c>
+      <c r="BY90" s="1"/>
     </row>
-    <row r="91" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -21800,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -21851,19 +21965,19 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -21881,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="AK91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL91">
         <v>0</v>
@@ -21997,14 +22111,15 @@
       <c r="BW91">
         <v>0</v>
       </c>
+      <c r="BY91" s="1"/>
     </row>
-    <row r="92" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -22046,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -22064,13 +22179,13 @@
         <v>0</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92">
         <v>0</v>
       </c>
       <c r="X92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -22091,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -22225,14 +22340,15 @@
       <c r="BW92">
         <v>0</v>
       </c>
+      <c r="BY92" s="1"/>
     </row>
-    <row r="93" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -22256,7 +22372,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -22280,10 +22396,10 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -22307,16 +22423,16 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE93">
         <v>0</v>
@@ -22453,14 +22569,15 @@
       <c r="BW93">
         <v>0</v>
       </c>
+      <c r="BY93" s="1"/>
     </row>
-    <row r="94" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -22508,13 +22625,13 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94">
         <v>0</v>
@@ -22526,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94">
         <v>0</v>
@@ -22547,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="AE94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -22556,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="AH94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI94">
         <v>0</v>
@@ -22681,14 +22798,15 @@
       <c r="BW94">
         <v>0</v>
       </c>
+      <c r="BY94" s="1"/>
     </row>
-    <row r="95" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -22712,7 +22830,7 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -22721,10 +22839,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -22763,22 +22881,22 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE95">
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG95">
         <v>0</v>
@@ -22909,14 +23027,15 @@
       <c r="BW95">
         <v>0</v>
       </c>
+      <c r="BY95" s="1"/>
     </row>
-    <row r="96" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -22958,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -22982,7 +23101,7 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y96">
         <v>0</v>
@@ -23003,7 +23122,7 @@
         <v>0</v>
       </c>
       <c r="AE96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -23012,7 +23131,7 @@
         <v>0</v>
       </c>
       <c r="AH96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI96">
         <v>0</v>
@@ -23137,14 +23256,15 @@
       <c r="BW96">
         <v>0</v>
       </c>
+      <c r="BY96" s="1"/>
     </row>
-    <row r="97" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -23168,7 +23288,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -23192,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -23219,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE97">
         <v>0</v>
@@ -23365,14 +23485,15 @@
       <c r="BW97">
         <v>0</v>
       </c>
+      <c r="BY97" s="1"/>
     </row>
-    <row r="98" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -23593,14 +23714,15 @@
       <c r="BW98">
         <v>0</v>
       </c>
+      <c r="BY98" s="1"/>
     </row>
-    <row r="99" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -23609,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -23621,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -23675,16 +23797,16 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE99">
         <v>0</v>
@@ -23821,20 +23943,21 @@
       <c r="BW99">
         <v>0</v>
       </c>
+      <c r="BY99" s="1"/>
     </row>
-    <row r="100" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -23915,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -23924,7 +24047,7 @@
         <v>0</v>
       </c>
       <c r="AH100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI100">
         <v>0</v>
@@ -24049,14 +24172,15 @@
       <c r="BW100">
         <v>0</v>
       </c>
+      <c r="BY100" s="1"/>
     </row>
-    <row r="101" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -24277,14 +24401,15 @@
       <c r="BW101">
         <v>0</v>
       </c>
+      <c r="BY101" s="1"/>
     </row>
-    <row r="102" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -24505,14 +24630,15 @@
       <c r="BW102">
         <v>0</v>
       </c>
+      <c r="BY102" s="1"/>
     </row>
-    <row r="103" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -24617,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="AK103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103">
         <v>0</v>
@@ -24632,16 +24758,16 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT103">
         <v>0</v>
@@ -24662,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="AZ103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA103">
         <v>0</v>
@@ -24733,20 +24859,21 @@
       <c r="BW103">
         <v>0</v>
       </c>
+      <c r="BY103" s="1"/>
     </row>
-    <row r="104" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -24773,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -24961,14 +25088,15 @@
       <c r="BW104">
         <v>0</v>
       </c>
+      <c r="BY104" s="1"/>
     </row>
-    <row r="105" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -25007,28 +25135,28 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T105">
         <v>0</v>
       </c>
       <c r="U105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -25037,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z105">
         <v>0</v>
@@ -25189,8 +25317,12 @@
       <c r="BW105">
         <v>0</v>
       </c>
+      <c r="BY105" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="B2:BY105">
+    <sortCondition ref="BY2:BY105"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25199,8 +25331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25234,16 +25366,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -25252,16 +25384,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -25270,16 +25402,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -25288,16 +25420,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -25306,16 +25438,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -25324,16 +25456,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -25342,16 +25474,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -25360,16 +25492,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -25378,16 +25510,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -25396,16 +25528,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -25414,16 +25546,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -25432,16 +25564,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -25450,16 +25582,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -25468,16 +25600,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -25486,16 +25618,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -25504,16 +25636,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -25522,16 +25654,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -25540,16 +25672,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -25558,16 +25690,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -25576,16 +25708,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -25594,16 +25726,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -25612,16 +25744,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -25630,16 +25762,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -25648,16 +25780,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -25666,16 +25798,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -25684,16 +25816,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -25702,16 +25834,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -25720,16 +25852,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -25738,16 +25870,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -25756,16 +25888,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -25774,16 +25906,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -25792,16 +25924,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -25810,16 +25942,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -25828,16 +25960,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -25846,16 +25978,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -25864,16 +25996,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -25882,16 +26014,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -25900,16 +26032,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -25918,16 +26050,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -25936,16 +26068,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -25954,16 +26086,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -25972,16 +26104,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -25990,16 +26122,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -26008,16 +26140,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -26026,16 +26158,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -26044,16 +26176,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -26062,16 +26194,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -26080,16 +26212,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -26116,16 +26248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -26134,16 +26266,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -26152,16 +26284,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -26170,16 +26302,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -26188,16 +26320,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -26206,16 +26338,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -26224,16 +26356,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -26242,16 +26374,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -26260,16 +26392,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -26278,16 +26410,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -26296,16 +26428,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -26314,16 +26446,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -26332,16 +26464,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -26350,16 +26482,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -26368,16 +26500,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -26386,16 +26518,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -26404,16 +26536,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -26422,16 +26554,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -26440,16 +26572,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -26458,16 +26590,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -26476,16 +26608,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -26494,16 +26626,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -26512,16 +26644,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -26530,16 +26662,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -26548,16 +26680,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -26566,16 +26698,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -26584,16 +26716,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -26602,16 +26734,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -26620,16 +26752,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -26638,16 +26770,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="E80" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -26656,16 +26788,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="E81" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -26674,16 +26806,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -26692,16 +26824,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -26710,16 +26842,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -26728,16 +26860,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -26746,16 +26878,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -26764,16 +26896,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D87" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -26782,16 +26914,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -26800,16 +26932,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -26818,16 +26950,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -26836,16 +26968,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -26854,16 +26986,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -26872,16 +27004,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -26890,16 +27022,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -26908,16 +27040,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -26926,16 +27058,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -26944,16 +27076,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -26962,16 +27094,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -26980,16 +27112,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -26998,16 +27130,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -27016,16 +27148,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -27034,16 +27166,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -27052,16 +27184,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -27070,16 +27202,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -27088,19 +27220,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E105" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:E105">
+    <sortCondition ref="D2:D105"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>